--- a/biology/Botanique/Petrea_volubilis/Petrea_volubilis.xlsx
+++ b/biology/Botanique/Petrea_volubilis/Petrea_volubilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrea volubilis, dite liane Saint-Jean, est une espèce de lianes vivaces de la famille des Verbénacées, originaire d'Amérique centrale et du Mexique. 
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrea volubilis est une plante grimpante, présente dans les jardins.
-Elle fleurit du printemps jusqu'au milieu, voire à la fin de l'été. Son feuillage est persistant, vert foncé, les feuilles à court pétiole sont longues d'environ 20 cm. Le fruit est un akène et les fleurs en tresses donnent à la plante une apparence somptueuse en pleine floraison. Suivant le climat, cette liane peut avoir jusqu'à deux floraisons dans l'année[4]. Ses fleurs très nectarifères attirent les papillons[5]. Il existe deux variétés, la plus commune à fleurs mauves, et celle à fleurs blanches, Albiflora[6].
+Elle fleurit du printemps jusqu'au milieu, voire à la fin de l'été. Son feuillage est persistant, vert foncé, les feuilles à court pétiole sont longues d'environ 20 cm. Le fruit est un akène et les fleurs en tresses donnent à la plante une apparence somptueuse en pleine floraison. Suivant le climat, cette liane peut avoir jusqu'à deux floraisons dans l'année. Ses fleurs très nectarifères attirent les papillons. Il existe deux variétés, la plus commune à fleurs mauves, et celle à fleurs blanches, Albiflora.
 En climat tempéré, Petrea volubilis tolère un gel très léger et fugace de l'ordre de -1 à -2 °C, mais au-delà de ce seuil, la plante meurt.
-Elle peut être ravagée par les cochenilles et doit donc être traitée[5].
+Elle peut être ravagée par les cochenilles et doit donc être traitée.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ethnie des Wayapi (Amérique, Guyane, Brésil) utilise traditionnellement une préparation avec la sève, afin de soigner brûlures, blessures, inflammations et abcès[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ethnie des Wayapi (Amérique, Guyane, Brésil) utilise traditionnellement une préparation avec la sève, afin de soigner brûlures, blessures, inflammations et abcès.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 mars 2019)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 variété Petrea volubilis var. alba G.F. Freeman &amp; W.G.Freeman
 variété Petrea volubilis var. albiflora (Standl.) Moldenke
 variété Petrea volubilis var. pubescens Moldenke
